--- a/Test/EWAS_Testing.xlsx
+++ b/Test/EWAS_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD17418-0F36-406F-9CA5-A54A5339B3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A65785-20A2-4B6B-9C96-5AF5CD348C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>cityhash</t>
   </si>
@@ -36,110 +36,59 @@
     <t>originalUrl</t>
   </si>
   <si>
-    <t>1000 Sample testing</t>
-  </si>
-  <si>
-    <t>Total Time</t>
-  </si>
-  <si>
-    <t>0.0032277392999999987</t>
-  </si>
-  <si>
-    <t>3.2277392999999988</t>
-  </si>
-  <si>
-    <t>hash64</t>
-  </si>
-  <si>
-    <t>hash32</t>
-  </si>
-  <si>
-    <t>0.003462343099999998</t>
-  </si>
-  <si>
-    <t>3.462343099999998</t>
-  </si>
-  <si>
-    <t>0.0033952321000000037</t>
-  </si>
-  <si>
-    <t>3.395232100000004</t>
-  </si>
-  <si>
     <t>simplehash</t>
   </si>
   <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t>0.005155706399999999</t>
-  </si>
-  <si>
-    <t>5.155706399999999</t>
-  </si>
-  <si>
-    <t>5.739673199999993</t>
-  </si>
-  <si>
-    <t>0.005739673199999993</t>
-  </si>
-  <si>
-    <t>0.0031018358999999993</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1018358999999993</t>
-  </si>
-  <si>
-    <t>0.003015254199999999</t>
-  </si>
-  <si>
-    <t>3.015254199999999</t>
-  </si>
-  <si>
-    <t>0.003214135399999999</t>
-  </si>
-  <si>
-    <t>3.214135399999999</t>
-  </si>
-  <si>
-    <t>hash128</t>
-  </si>
-  <si>
-    <t>0.0030445456999999994</t>
-  </si>
-  <si>
-    <t>3.0445456999999996</t>
-  </si>
-  <si>
     <t>spookyHash</t>
   </si>
   <si>
     <t>xxhash3264</t>
   </si>
   <si>
-    <t>0.002991621800000002</t>
-  </si>
-  <si>
-    <t>2.9916218000000017</t>
-  </si>
-  <si>
-    <t>0.002840012399999999</t>
-  </si>
-  <si>
-    <t>2.840012399999999</t>
-  </si>
-  <si>
-    <t>0.0030066867999999996</t>
-  </si>
-  <si>
-    <t>3.0066867999999998</t>
+    <t>originalUrl,"cityhash64","cityhash32","samplehash","spookyhash128","spookyhash64","spookyhash32","xxhash32","xxhash64"</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>0.0054746468000000026</t>
+  </si>
+  <si>
+    <t>0.008920502900000005</t>
+  </si>
+  <si>
+    <t>0.0064428895</t>
+  </si>
+  <si>
+    <t>0.0055487476</t>
+  </si>
+  <si>
+    <t>0.006986336300000006</t>
+  </si>
+  <si>
+    <t>0.008734249199999999</t>
+  </si>
+  <si>
+    <t>0.006835702699999996</t>
+  </si>
+  <si>
+    <t>0.006170218599999991</t>
+  </si>
+  <si>
+    <t>0.006609360799999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,20 +109,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,14 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,188 +425,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
